--- a/biology/Médecine/Centre_hospitalier_de_St._Mary/Centre_hospitalier_de_St._Mary.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_St._Mary/Centre_hospitalier_de_St._Mary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier de St. Mary (en anglais : St. Mary's Hospital) est un établissement du Centre intégré universitaire de santé et de services sociaux de l'Ouest-de-l'Île-de-Montréal et affilié à l'Université McGill à Montréal, au Québec. L'hôpital de St. Mary est membre du Réseau universitaire intégré de santé (RUIS) McGill.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital a été fondé en 1924 par le docteur Donald A. Hingston. Le Centre hospitalier St. Mary's est à l'origine une institution de 45 lits. Il était d'abord situé au Shaughnessy House (maintenant le Centre canadien d'architecture) à l'ouest du centre-ville de Montréal. Il déménage ensuite à son emplacement actuel dans le quartier Côte-des-Neiges où il contient 271 lits[1]. uwu
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital a été fondé en 1924 par le docteur Donald A. Hingston. Le Centre hospitalier St. Mary's est à l'origine une institution de 45 lits. Il était d'abord situé au Shaughnessy House (maintenant le Centre canadien d'architecture) à l'ouest du centre-ville de Montréal. Il déménage ensuite à son emplacement actuel dans le quartier Côte-des-Neiges où il contient 271 lits. uwu
 </t>
         </is>
       </c>
